--- a/customer_data.xlsx
+++ b/customer_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Customer Email </t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>saad123</t>
+  </si>
+  <si>
+    <t>alisheikh@gmail.com</t>
+  </si>
+  <si>
+    <t>ali123</t>
+  </si>
+  <si>
+    <t>waqarahmed@gmail.com</t>
+  </si>
+  <si>
+    <t>waqar123</t>
   </si>
 </sst>
 </file>
@@ -376,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,6 +426,22 @@
       </c>
       <c r="F4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/customer_data.xlsx
+++ b/customer_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Customer Email </t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>waqar123</t>
+  </si>
+  <si>
+    <t>Huzaifakamal@gmail.com</t>
+  </si>
+  <si>
+    <t>huzaifa123</t>
   </si>
 </sst>
 </file>
@@ -388,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -444,11 +450,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
